--- a/data/baltimore.xlsx
+++ b/data/baltimore.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clint\Documents\nss\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA04AA2-A173-43A3-9E04-0E9CD8E57BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF7A8C1-5532-40C1-9079-3EAA220C641C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="9" xr2:uid="{CBA87832-1D8C-4692-B5F4-7DBD77338184}"/>
+    <workbookView xWindow="-28920" yWindow="8295" windowWidth="29040" windowHeight="15840" xr2:uid="{CBA87832-1D8C-4692-B5F4-7DBD77338184}"/>
   </bookViews>
   <sheets>
     <sheet name="2011" sheetId="1" r:id="rId1"/>
@@ -2140,922 +2140,922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9DA251-FB06-448A-A619-DC0237CDF9BC}">
-  <dimension ref="A145:S184"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A145" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L145" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N145" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O145" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P145" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R145" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S145" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A146" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="G146" t="s">
-        <v>20</v>
-      </c>
-      <c r="H146" t="s">
-        <v>20</v>
-      </c>
-      <c r="I146" t="s">
-        <v>20</v>
-      </c>
-      <c r="J146" t="s">
-        <v>20</v>
-      </c>
-      <c r="K146" t="s">
-        <v>20</v>
-      </c>
-      <c r="L146" t="s">
-        <v>20</v>
-      </c>
-      <c r="M146" t="s">
-        <v>20</v>
-      </c>
-      <c r="N146" t="s">
-        <v>20</v>
-      </c>
-      <c r="O146" t="s">
-        <v>20</v>
-      </c>
-      <c r="P146" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A147" t="s">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="J147" t="s">
-        <v>23</v>
-      </c>
-      <c r="R147" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A148" t="s">
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="D148" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" t="s">
-        <v>23</v>
-      </c>
-      <c r="I148" t="s">
-        <v>23</v>
-      </c>
-      <c r="J148" t="s">
-        <v>23</v>
-      </c>
-      <c r="N148" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A149" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="P149" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>20</v>
-      </c>
-      <c r="R149" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A150" t="s">
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="H150" t="s">
-        <v>20</v>
-      </c>
-      <c r="I150" t="s">
-        <v>20</v>
-      </c>
-      <c r="J150" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A151" t="s">
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="I151" t="s">
-        <v>28</v>
-      </c>
-      <c r="J151" t="s">
-        <v>28</v>
-      </c>
-      <c r="K151" t="s">
-        <v>28</v>
-      </c>
-      <c r="L151" t="s">
-        <v>28</v>
-      </c>
-      <c r="M151" t="s">
-        <v>28</v>
-      </c>
-      <c r="N151" t="s">
-        <v>28</v>
-      </c>
-      <c r="O151" t="s">
-        <v>28</v>
-      </c>
-      <c r="P151" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>28</v>
-      </c>
-      <c r="R151" t="s">
-        <v>28</v>
-      </c>
-      <c r="S151" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A152" t="s">
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C152" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" t="s">
-        <v>20</v>
-      </c>
-      <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>20</v>
-      </c>
-      <c r="H152" t="s">
-        <v>23</v>
-      </c>
-      <c r="L152" t="s">
-        <v>20</v>
-      </c>
-      <c r="M152" t="s">
-        <v>20</v>
-      </c>
-      <c r="N152" t="s">
-        <v>20</v>
-      </c>
-      <c r="P152" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A153" t="s">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="D153" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A154" t="s">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="N154" t="s">
-        <v>23</v>
-      </c>
-      <c r="O154" t="s">
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
         <v>32</v>
       </c>
-      <c r="P154" t="s">
+      <c r="P10" t="s">
         <v>32</v>
       </c>
-      <c r="Q154" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A155" t="s">
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s">
-        <v>20</v>
-      </c>
-      <c r="H155" t="s">
-        <v>20</v>
-      </c>
-      <c r="I155" t="s">
-        <v>20</v>
-      </c>
-      <c r="J155" t="s">
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
         <v>32</v>
       </c>
-      <c r="K155" t="s">
-        <v>23</v>
-      </c>
-      <c r="L155" t="s">
-        <v>20</v>
-      </c>
-      <c r="M155" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q155" t="s">
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
         <v>32</v>
       </c>
-      <c r="R155" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A156" t="s">
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="C156" t="s">
-        <v>23</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="H156" t="s">
-        <v>20</v>
-      </c>
-      <c r="I156" t="s">
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>32</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J12" t="s">
         <v>32</v>
       </c>
-      <c r="K156" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A157" t="s">
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="E157" t="s">
-        <v>28</v>
-      </c>
-      <c r="F157" t="s">
-        <v>28</v>
-      </c>
-      <c r="G157" t="s">
-        <v>28</v>
-      </c>
-      <c r="H157" t="s">
-        <v>28</v>
-      </c>
-      <c r="I157" t="s">
-        <v>28</v>
-      </c>
-      <c r="J157" t="s">
-        <v>28</v>
-      </c>
-      <c r="K157" t="s">
-        <v>28</v>
-      </c>
-      <c r="L157" t="s">
-        <v>28</v>
-      </c>
-      <c r="M157" t="s">
-        <v>28</v>
-      </c>
-      <c r="N157" t="s">
-        <v>28</v>
-      </c>
-      <c r="O157" t="s">
-        <v>28</v>
-      </c>
-      <c r="P157" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>28</v>
-      </c>
-      <c r="R157" t="s">
-        <v>28</v>
-      </c>
-      <c r="S157" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A158" t="s">
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="H158" t="s">
-        <v>20</v>
-      </c>
-      <c r="I158" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A159" t="s">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B159" t="s">
-        <v>23</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D159" t="s">
-        <v>20</v>
-      </c>
-      <c r="E159" t="s">
-        <v>20</v>
-      </c>
-      <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>20</v>
-      </c>
-      <c r="H159" t="s">
-        <v>20</v>
-      </c>
-      <c r="I159" t="s">
-        <v>23</v>
-      </c>
-      <c r="N159" t="s">
-        <v>23</v>
-      </c>
-      <c r="O159" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A160" t="s">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B160" t="s">
-        <v>28</v>
-      </c>
-      <c r="C160" t="s">
-        <v>28</v>
-      </c>
-      <c r="D160" t="s">
-        <v>28</v>
-      </c>
-      <c r="E160" t="s">
-        <v>28</v>
-      </c>
-      <c r="F160" t="s">
-        <v>28</v>
-      </c>
-      <c r="G160" t="s">
-        <v>28</v>
-      </c>
-      <c r="H160" t="s">
-        <v>28</v>
-      </c>
-      <c r="I160" t="s">
-        <v>28</v>
-      </c>
-      <c r="J160" t="s">
-        <v>28</v>
-      </c>
-      <c r="K160" t="s">
-        <v>28</v>
-      </c>
-      <c r="L160" t="s">
-        <v>28</v>
-      </c>
-      <c r="M160" t="s">
-        <v>28</v>
-      </c>
-      <c r="N160" t="s">
-        <v>28</v>
-      </c>
-      <c r="O160" t="s">
-        <v>28</v>
-      </c>
-      <c r="P160" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>28</v>
-      </c>
-      <c r="R160" t="s">
-        <v>28</v>
-      </c>
-      <c r="S160" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A161" t="s">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A162" t="s">
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="K162" t="s">
-        <v>20</v>
-      </c>
-      <c r="L162" t="s">
-        <v>20</v>
-      </c>
-      <c r="M162" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A163" t="s">
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B163" t="s">
-        <v>28</v>
-      </c>
-      <c r="C163" t="s">
-        <v>28</v>
-      </c>
-      <c r="D163" t="s">
-        <v>28</v>
-      </c>
-      <c r="E163" t="s">
-        <v>28</v>
-      </c>
-      <c r="F163" t="s">
-        <v>28</v>
-      </c>
-      <c r="G163" t="s">
-        <v>28</v>
-      </c>
-      <c r="H163" t="s">
-        <v>28</v>
-      </c>
-      <c r="I163" t="s">
-        <v>28</v>
-      </c>
-      <c r="J163" t="s">
-        <v>28</v>
-      </c>
-      <c r="K163" t="s">
-        <v>28</v>
-      </c>
-      <c r="L163" t="s">
-        <v>28</v>
-      </c>
-      <c r="M163" t="s">
-        <v>28</v>
-      </c>
-      <c r="N163" t="s">
-        <v>28</v>
-      </c>
-      <c r="O163" t="s">
-        <v>28</v>
-      </c>
-      <c r="P163" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>28</v>
-      </c>
-      <c r="R163" t="s">
-        <v>28</v>
-      </c>
-      <c r="S163" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A164" t="s">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="C164" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A165" t="s">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="K165" t="s">
-        <v>20</v>
-      </c>
-      <c r="L165" t="s">
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
         <v>32</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M21" t="s">
         <v>32</v>
       </c>
-      <c r="N165" t="s">
-        <v>20</v>
-      </c>
-      <c r="O165" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A166" t="s">
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="C166" t="s">
-        <v>28</v>
-      </c>
-      <c r="D166" t="s">
-        <v>28</v>
-      </c>
-      <c r="E166" t="s">
-        <v>28</v>
-      </c>
-      <c r="F166" t="s">
-        <v>28</v>
-      </c>
-      <c r="G166" t="s">
-        <v>28</v>
-      </c>
-      <c r="H166" t="s">
-        <v>28</v>
-      </c>
-      <c r="I166" t="s">
-        <v>28</v>
-      </c>
-      <c r="J166" t="s">
-        <v>28</v>
-      </c>
-      <c r="K166" t="s">
-        <v>28</v>
-      </c>
-      <c r="L166" t="s">
-        <v>28</v>
-      </c>
-      <c r="M166" t="s">
-        <v>28</v>
-      </c>
-      <c r="N166" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A167" t="s">
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="R167" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A168" t="s">
+      <c r="R23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="E168" t="s">
-        <v>20</v>
-      </c>
-      <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="L168" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A169" t="s">
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="I169" t="s">
-        <v>23</v>
-      </c>
-      <c r="O169" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A170" t="s">
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B170" t="s">
-        <v>28</v>
-      </c>
-      <c r="C170" t="s">
-        <v>28</v>
-      </c>
-      <c r="D170" t="s">
-        <v>28</v>
-      </c>
-      <c r="E170" t="s">
-        <v>28</v>
-      </c>
-      <c r="F170" t="s">
-        <v>28</v>
-      </c>
-      <c r="G170" t="s">
-        <v>28</v>
-      </c>
-      <c r="H170" t="s">
-        <v>28</v>
-      </c>
-      <c r="I170" t="s">
-        <v>28</v>
-      </c>
-      <c r="J170" t="s">
-        <v>28</v>
-      </c>
-      <c r="K170" t="s">
-        <v>28</v>
-      </c>
-      <c r="L170" t="s">
-        <v>28</v>
-      </c>
-      <c r="M170" t="s">
-        <v>28</v>
-      </c>
-      <c r="N170" t="s">
-        <v>28</v>
-      </c>
-      <c r="O170" t="s">
-        <v>28</v>
-      </c>
-      <c r="P170" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>28</v>
-      </c>
-      <c r="R170" t="s">
-        <v>28</v>
-      </c>
-      <c r="S170" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A171" t="s">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="B171" t="s">
-        <v>21</v>
-      </c>
-      <c r="C171" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A172" t="s">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="Q172" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A173" t="s">
+      <c r="Q28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="D173" t="s">
-        <v>23</v>
-      </c>
-      <c r="E173" t="s">
-        <v>23</v>
-      </c>
-      <c r="O173" t="s">
-        <v>23</v>
-      </c>
-      <c r="P173" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A174" t="s">
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="C174" t="s">
-        <v>23</v>
-      </c>
-      <c r="D174" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174" t="s">
-        <v>20</v>
-      </c>
-      <c r="F174" t="s">
-        <v>23</v>
-      </c>
-      <c r="I174" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>28</v>
-      </c>
-      <c r="R174" t="s">
-        <v>28</v>
-      </c>
-      <c r="S174" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A175" t="s">
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="H175" t="s">
-        <v>23</v>
-      </c>
-      <c r="J175" t="s">
-        <v>23</v>
-      </c>
-      <c r="S175" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A176" t="s">
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="S176" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A177" t="s">
+      <c r="S32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="C177" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177" t="s">
-        <v>20</v>
-      </c>
-      <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" t="s">
-        <v>23</v>
-      </c>
-      <c r="N177" t="s">
-        <v>23</v>
-      </c>
-      <c r="R177" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A178" t="s">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="J178" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A179" t="s">
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
         <v>57</v>
       </c>
-      <c r="O179" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A180" t="s">
+      <c r="O35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
         <v>58</v>
       </c>
-      <c r="Q180" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A181" t="s">
+      <c r="Q36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="P181" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>28</v>
-      </c>
-      <c r="R181" t="s">
-        <v>28</v>
-      </c>
-      <c r="S181" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A182" t="s">
+      <c r="P37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A183" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="Q183" t="s">
+      <c r="Q39" t="s">
         <v>32</v>
       </c>
-      <c r="R183" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.75">
-      <c r="A184" t="s">
+      <c r="R39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
         <v>32</v>
       </c>
-      <c r="H184" t="s">
-        <v>23</v>
-      </c>
-      <c r="R184" t="s">
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56966903-902F-48FF-A562-D37BE93E6416}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
